--- a/test_y.xlsx
+++ b/test_y.xlsx
@@ -453,151 +453,151 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45721</v>
+        <v>45754</v>
       </c>
       <c r="B2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45722</v>
+        <v>45755</v>
       </c>
       <c r="B3" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45723</v>
+        <v>45756</v>
       </c>
       <c r="B4" t="n">
-        <v>21.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45724</v>
+        <v>45757</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725</v>
+        <v>45758</v>
       </c>
       <c r="B6" t="n">
-        <v>3.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45726</v>
+        <v>45759</v>
       </c>
       <c r="B7" t="n">
-        <v>23.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45727</v>
+        <v>45760</v>
       </c>
       <c r="B8" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45728</v>
+        <v>45761</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45729</v>
+        <v>45762</v>
       </c>
       <c r="B10" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45730</v>
+        <v>45763</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45731</v>
+        <v>45764</v>
       </c>
       <c r="B12" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45732</v>
+        <v>45765</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45733</v>
+        <v>45766</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45734</v>
+        <v>45767</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45735</v>
+        <v>45768</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45736</v>
+        <v>45769</v>
       </c>
       <c r="B17" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45737</v>
+        <v>45770</v>
       </c>
       <c r="B18" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45738</v>
+        <v>45771</v>
       </c>
       <c r="B19" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45739</v>
+        <v>45772</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -605,15 +605,15 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45740</v>
+        <v>45773</v>
       </c>
       <c r="B21" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45741</v>
+        <v>45774</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45742</v>
+        <v>45775</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45743</v>
+        <v>45776</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -637,58 +637,58 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45744</v>
+        <v>45777</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45745</v>
+        <v>45778</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45746</v>
+        <v>45779</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45747</v>
+        <v>45780</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45748</v>
+        <v>45781</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45749</v>
+        <v>45782</v>
       </c>
       <c r="B30" t="n">
-        <v>21.9</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45750</v>
+        <v>45783</v>
       </c>
       <c r="B31" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
